--- a/Platinenentwurf/weitere_bauteile/Bauteil_Liste.xlsx
+++ b/Platinenentwurf/weitere_bauteile/Bauteil_Liste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">Alternative</t>
   </si>
@@ -47,6 +47,57 @@
   </si>
   <si>
     <t xml:space="preserve">https://de.farnell.com/panasonic/era8aeb752v/d-nnschichtwiderst-7k5-0-1-0-25w/dp/1841771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,49kOhm (dü)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.farnell.com/panasonic-electronic-components/era8aeb6491v/d-nnsch-widerstand-6k49-0-1-0/dp/2095216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,6kOhm (dü)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.farnell.com/panasonic/era8arb362v/d-nnschichtwiderstand-3k6-0-1/dp/2484825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,04kOhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.farnell.com/vishay/crcw12066k04fkea/dickschichtwiderstand-6k04-1-0/dp/1653161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW12066K04FKEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,5kOhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.farnell.com/panasonic/erjp08f1652v/dickschichtwiderstand-16k5-1-0/dp/2312345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,3kOhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://de.farnell.com/panasonic-electronic-components/era8aeb3832v/d-nnsch-widerstand-38k3-0-1-0/dp/2095104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spannungsteiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quellspannung [V]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zielspannung [V]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widerstand So [Ohm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widerstand GND [Ohm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtwiderstand [Ohm]</t>
   </si>
 </sst>
 </file>
@@ -56,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,6 +134,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -129,12 +188,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,16 +230,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -187,6 +269,9 @@
       <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="J3" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="L3" s="0" t="s">
         <v>5</v>
       </c>
@@ -198,11 +283,194 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="L4" s="0" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">H25/G25</f>
+        <v>0.145454545454545</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">K25*(G25/H25)-K25</f>
+        <v>38128.75</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>6490</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">J25+K25</f>
+        <v>44618.75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">H26/G26</f>
+        <v>0.6432</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">K26*(G26/H26)-K26</f>
+        <v>3600.17412935323</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>6490</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">J26+K26</f>
+        <v>10090.1741293532</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">H27/G27</f>
+        <v>0.64</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">K27*(G27/H27)-K27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">J27+K27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">H28/G28</f>
+        <v>0.64</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">K28*(G28/H28)-K28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">J28+K28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://de.farnell.com/panasonic/erjp08f1652v/dickschichtwiderstand-16k5-1-0/dp/2312345"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
